--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{929FA742-2E33-4D4D-AC07-5F46222F4626}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0093E5E2-1B71-41CC-89EF-08A62D6535F5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0093E5E2-1B71-41CC-89EF-08A62D6535F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E62C97E4-6153-44CD-B90D-6937A87577CD}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E62C97E4-6153-44CD-B90D-6937A87577CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F3F954-5431-4C95-81D4-A0ED42C98B49}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F3F954-5431-4C95-81D4-A0ED42C98B49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B20D01-8FE6-44EE-8D1F-449DCAF317A4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B20D01-8FE6-44EE-8D1F-449DCAF317A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C5E329-5325-42CC-8BA0-0E904C274BF5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C5E329-5325-42CC-8BA0-0E904C274BF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8D7FB3-6665-40C2-9333-4242D0A0D141}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8D7FB3-6665-40C2-9333-4242D0A0D141}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A3CB8AA-91DC-43D0-B6CD-A3AAA1CBB26D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A3CB8AA-91DC-43D0-B6CD-A3AAA1CBB26D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8279C8A1-1E96-448A-8D61-FADD70F7C0B2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8279C8A1-1E96-448A-8D61-FADD70F7C0B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4DA625-5238-4D70-85D3-2520411717CA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
+++ b/test_ExcelWorkbook1/bin/Debug/test_ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4DA625-5238-4D70-85D3-2520411717CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A133D77-6D02-4168-9EAB-068FAC4E1014}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>